--- a/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
+++ b/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haenara.SHIN/Documents/2 Study (Python, Math)/99 Kaggle/2 SIIM-FISABIO-RSNA COVID-19 Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F034615B-EE18-6F4E-BEFB-7BF76BE98457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE42E4-DFD8-8C44-8520-72989DC0432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30440" yWindow="1000" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
+    <workbookView xWindow="3940" yWindow="980" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,7 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,19 +438,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,12 +777,12 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -798,32 +810,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>7.6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>43.7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -942,23 +954,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>9.9</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>47.4</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -982,23 +994,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" s="9" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>47.1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1022,20 +1034,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>48.1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1142,43 +1154,43 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" s="11" customFormat="1">
+      <c r="A18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>49.7</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>50.4</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>67</v>
       </c>
     </row>

--- a/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
+++ b/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haenara.SHIN/Documents/2 Study (Python, Math)/99 Kaggle/2 SIIM-FISABIO-RSNA COVID-19 Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE42E4-DFD8-8C44-8520-72989DC0432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852E664-5433-8E43-BE9D-2A0AF0305343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="980" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
+    <workbookView xWindow="-29280" yWindow="860" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,13 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +777,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -954,23 +954,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" s="11" customFormat="1">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="11">
         <v>9.9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="11">
         <v>47.4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -994,23 +994,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="2">
         <v>47.1</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1154,23 +1154,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="11" customFormat="1">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:7" s="9" customFormat="1">
+      <c r="A18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>49.7</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>64</v>
       </c>
     </row>

--- a/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
+++ b/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haenara.SHIN/Documents/2 Study (Python, Math)/99 Kaggle/2 SIIM-FISABIO-RSNA COVID-19 Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852E664-5433-8E43-BE9D-2A0AF0305343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABADDE0-3FD9-8348-BFB9-3191C1ED2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29280" yWindow="860" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
+    <workbookView xWindow="10500" yWindow="700" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +401,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -419,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +463,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,495 +792,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B940E6-C679-F640-BCC1-5AB734A78405}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1">
+      <c r="A2" s="7">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>7.6</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>43.7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" s="4" customFormat="1">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>10.7</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>44.7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11.8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>43.9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="13" customFormat="1">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="13">
         <v>7.1</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="13">
         <v>44.2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" s="2" customFormat="1">
+      <c r="A6" s="2">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>7.3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>44.5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" s="2" customFormat="1">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="11" customFormat="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:11" s="11" customFormat="1">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <v>9.9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="11">
         <v>47.4</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" s="15" customFormat="1">
+      <c r="B9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="15">
         <v>44.7</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" s="2" customFormat="1">
+      <c r="A10" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>47.1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>45.9</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:11" s="2" customFormat="1">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>48.1</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" s="13" customFormat="1">
+      <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="13">
         <v>6.2</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="13">
         <v>45.1</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:11" s="4" customFormat="1">
+      <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>44.5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>47.8</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>46.2</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>49</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="2:8" s="9" customFormat="1">
+      <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <v>49.7</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="2:8" s="4" customFormat="1">
+      <c r="B19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>50.4</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="20" spans="2:8" s="4" customFormat="1">
+      <c r="B20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="4">
         <v>44.5</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="21" spans="2:8" s="4" customFormat="1">
+      <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="4">
         <v>46.1</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="22" spans="2:8" s="4" customFormat="1">
+      <c r="B22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F22">
+      <c r="G22" s="4">
         <v>46.8</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{5AA2097E-493C-6341-B15E-63A18D5A8B43}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{7A2CD829-53A7-AC48-90BE-A6F81CB19F04}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{4CF0C5EE-5682-054C-AAE1-4A8F5052E758}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{DD47FBD2-C6B0-B642-8BAD-BC99142B3E4C}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{FE924FE7-F54E-5340-8EEE-26CAB6FECED6}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{CA952175-A594-6149-97B3-0B6A9731B2A9}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{D80A44F9-5DED-B348-AEF7-7776645620C1}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{71B121F6-8127-364A-8949-5D5214D6FC7A}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{7661347C-25A1-F247-A264-E761CFF01B9F}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{34CEFBCB-9514-4845-A85F-8D1BF3CD6FF9}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{7886214D-2CD8-2A47-8E0B-404E26D468D4}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{A4837044-B2BB-0C46-B154-7AF67AFA0638}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{7B3A9AF3-47EB-DD47-9CCB-D9285D4087F3}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{A7010E2D-2208-0840-B7D9-2110E261A35D}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{C2862272-29F0-C44B-B2D8-DC19270A4594}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{76E7F5B8-53DC-224B-A6BD-5E0FB2ECF624}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{31BE18E6-81E6-BF4E-9063-5CFB616DDD03}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{5C79E900-273E-244F-8C83-EDF788482B32}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{4236B34C-77C5-FE43-AE7D-0D8B36BBA4D3}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{A3841AAC-FAD6-7140-831A-401702A25F9A}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{2C7855A7-890C-0249-8B7D-E750563C370C}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{5AA2097E-493C-6341-B15E-63A18D5A8B43}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{7A2CD829-53A7-AC48-90BE-A6F81CB19F04}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{4CF0C5EE-5682-054C-AAE1-4A8F5052E758}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{DD47FBD2-C6B0-B642-8BAD-BC99142B3E4C}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{FE924FE7-F54E-5340-8EEE-26CAB6FECED6}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{CA952175-A594-6149-97B3-0B6A9731B2A9}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{D80A44F9-5DED-B348-AEF7-7776645620C1}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{71B121F6-8127-364A-8949-5D5214D6FC7A}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{7661347C-25A1-F247-A264-E761CFF01B9F}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{34CEFBCB-9514-4845-A85F-8D1BF3CD6FF9}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{7886214D-2CD8-2A47-8E0B-404E26D468D4}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{A4837044-B2BB-0C46-B154-7AF67AFA0638}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{7B3A9AF3-47EB-DD47-9CCB-D9285D4087F3}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{A7010E2D-2208-0840-B7D9-2110E261A35D}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{C2862272-29F0-C44B-B2D8-DC19270A4594}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{76E7F5B8-53DC-224B-A6BD-5E0FB2ECF624}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{31BE18E6-81E6-BF4E-9063-5CFB616DDD03}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{5C79E900-273E-244F-8C83-EDF788482B32}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{4236B34C-77C5-FE43-AE7D-0D8B36BBA4D3}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{A3841AAC-FAD6-7140-831A-401702A25F9A}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{2C7855A7-890C-0249-8B7D-E750563C370C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
+++ b/2 SIIM-FISABIO-RSNA COVID-19 Detection/MMDetection_Backbone_models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haenara.SHIN/Documents/2 Study (Python, Math)/99 Kaggle/2 SIIM-FISABIO-RSNA COVID-19 Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABADDE0-3FD9-8348-BFB9-3191C1ED2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F2331-B600-F249-A5B4-DAE22DAAA447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="700" windowWidth="28300" windowHeight="16180" xr2:uid="{4D516184-E40F-A447-9234-7D680F371712}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
